--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 11/Lab 11.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 11/Lab 11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1AF6C-64B7-4D9E-83D4-D0B8440BA02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050FF64-2AB9-4B60-8A9A-F901AE60A549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Experiment 10.a Basic BJT Circuits without Emitter Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experiment 10.b Basic BJT Circuits with Emitter Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>RC</t>
   </si>
@@ -88,6 +80,14 @@
   </si>
   <si>
     <t>ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment 11.a Effects of the Saturation Level on Switching Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment 11.b Effects of Speed-up Capacitor on Switching Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="196" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,17 +149,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +157,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,28 +451,24 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -480,258 +476,222 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
         <v>309</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <f>(12-0.2)/10^-3</f>
+        <v>11800</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f>((12-0.2)/1200)/B2 * 10^3</f>
+        <v>3.1823085221143479E-2</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="9">
+        <f>3*B4</f>
+        <v>9.5469255663430438E-2</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="9">
+        <f>30*B4</f>
+        <v>0.95469255663430441</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8"/>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="B9" s="3">
+        <v>710</v>
+      </c>
+      <c r="C9" s="3">
+        <v>730</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1250</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>710</v>
-      </c>
-      <c r="C8" s="6">
-        <v>730</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1250</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B10" s="3">
+        <v>170</v>
+      </c>
+      <c r="C10" s="3">
+        <v>630</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
-        <v>170</v>
-      </c>
-      <c r="C9" s="6">
-        <v>630</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="B13" s="3">
         <v>1200</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3">
         <v>65</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="5">
         <v>280</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="5">
         <v>340</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17"/>
-      <c r="B17" s="6">
-        <v>120</v>
-      </c>
-      <c r="C17" s="10">
-        <v>220</v>
-      </c>
-      <c r="D17" s="10">
-        <v>470</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="B18" s="3">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6">
+        <v>220</v>
+      </c>
+      <c r="D18" s="6">
+        <v>470</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -744,8 +704,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
